--- a/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE145B55-ED3A-4DEF-995C-52DC677E0A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B1892-4162-4D41-A57F-5E281D443ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -535,6 +535,18 @@
 09:其他
 10:買回
 11:綁約期還款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceiveFg</t>
+  </si>
+  <si>
+    <t>領取記號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未領取
+1:已領取</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1129,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1737,85 +1749,106 @@
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="18" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>25</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>26</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="17">
-        <v>6</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E34" s="17"/>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>27</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="E35" s="17">
+        <v>6</v>
+      </c>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>28</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>29</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>6</v>
       </c>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/DbLayouts/L2-業務作業/FacClose.xlsx
+++ b/DbLayouts/L2-業務作業/FacClose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B1892-4162-4D41-A57F-5E281D443ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6D7616-D43F-4D4B-8B8A-01090386A828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -516,10 +516,6 @@
   </si>
   <si>
     <t>ApplDate &gt;= ,AND ApplDate &lt;=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo ASC,FacmNo ASC,CloseNo ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -548,6 +544,10 @@
     <t>0:未領取
 1:已領取</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC,FacmNo ASC,CloseNo ASC,CloseDate ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1143,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1754,10 +1754,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>29</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1870,9 +1870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1902,7 +1902,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1946,7 +1946,7 @@
         <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1979,7 +1979,7 @@
         <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
